--- a/Arquivos Texto/Contas 2022 1.xlsx
+++ b/Arquivos Texto/Contas 2022 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\netoemanuel\Arquivos Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8469379-C641-4DE4-BAE5-948CE2E2CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39994C41-8279-4194-A914-66C336266A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="15" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="16" xr2:uid="{9FEB682A-E147-41D2-8393-A4EC61AE7AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,29 +29,19 @@
     <sheet name="Abril23" sheetId="14" r:id="rId14"/>
     <sheet name="Maio23" sheetId="15" r:id="rId15"/>
     <sheet name="Junho23" sheetId="16" r:id="rId16"/>
+    <sheet name="Planilha2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="131">
   <si>
     <t>Cartões</t>
   </si>
@@ -433,6 +423,18 @@
   <si>
     <t xml:space="preserve">Cafeteira </t>
   </si>
+  <si>
+    <t>(03/08)</t>
+  </si>
+  <si>
+    <t>(04/18)</t>
+  </si>
+  <si>
+    <t>(09/24)</t>
+  </si>
+  <si>
+    <t>(03/04)</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +445,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,6 +936,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -953,7 +956,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1255,7 +1258,7 @@
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
@@ -1272,7 +1275,7 @@
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1286,7 +1289,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1300,7 +1303,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="53" t="s">
         <v>0</v>
@@ -1320,7 +1323,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1354,7 @@
       <c r="K4" s="57"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1390,7 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1417,7 +1420,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1443,7 +1446,7 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1470,7 @@
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1490,7 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1510,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1530,7 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1547,7 +1550,7 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="11"/>
@@ -1566,7 +1569,7 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1589,7 +1592,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75">
+    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1611,7 +1614,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1631,7 +1634,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1651,7 +1654,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1667,7 +1670,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1683,7 +1686,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1699,7 +1702,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1715,7 +1718,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1731,7 +1734,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1747,7 +1750,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1763,7 +1766,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1779,7 +1782,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1795,7 +1798,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1811,7 +1814,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1839,7 +1842,7 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1852,7 +1855,7 @@
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1866,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -1878,7 +1881,7 @@
       <c r="M4" s="62"/>
       <c r="N4" s="62"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="63" t="s">
         <v>24</v>
       </c>
@@ -1890,7 +1893,7 @@
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
         <v>26</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
@@ -1947,7 +1950,7 @@
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="40"/>
@@ -1965,7 +1968,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -1985,7 +1988,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
       <c r="C11" s="36"/>
       <c r="D11" s="38"/>
@@ -2004,7 +2007,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
       <c r="D12" s="38"/>
@@ -2022,7 +2025,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="36"/>
       <c r="D13" s="45"/>
@@ -2040,7 +2043,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
@@ -2057,7 +2060,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
@@ -2072,7 +2075,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
@@ -2089,7 +2092,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -2106,7 +2109,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -2123,7 +2126,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -2140,7 +2143,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -2157,7 +2160,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -2174,7 +2177,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -2191,7 +2194,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -2209,7 +2212,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -2227,7 +2230,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -2245,7 +2248,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -2263,7 +2266,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -2281,7 +2284,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -2299,7 +2302,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -2317,7 +2320,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -2335,7 +2338,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -2353,7 +2356,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -2371,7 +2374,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
@@ -2389,7 +2392,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
@@ -2407,7 +2410,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28"/>
@@ -2422,7 +2425,7 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="3:14" ht="17.25">
+    <row r="36" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="1"/>
@@ -2433,7 +2436,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="G37" s="1"/>
@@ -2446,7 +2449,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="H38" s="40"/>
@@ -2455,7 +2458,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="H39" s="40"/>
@@ -2464,7 +2467,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
@@ -2479,7 +2482,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="28" t="s">
@@ -2494,7 +2497,7 @@
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
@@ -2517,7 +2520,7 @@
       </c>
       <c r="N42" s="28"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
@@ -2550,7 +2553,7 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -2563,7 +2566,7 @@
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>22</v>
       </c>
@@ -2574,7 +2577,7 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -2589,7 +2592,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="62"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="63" t="s">
         <v>24</v>
       </c>
@@ -2601,7 +2604,7 @@
       <c r="G4" s="63"/>
       <c r="H4" s="63"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
         <v>26</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
@@ -2642,7 +2645,7 @@
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -2658,7 +2661,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="40"/>
@@ -2676,7 +2679,7 @@
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2699,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="36"/>
       <c r="D10" s="38"/>
@@ -2715,7 +2718,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="36"/>
       <c r="D11" s="38"/>
@@ -2734,7 +2737,7 @@
       <c r="N11" s="41"/>
       <c r="Q11" s="49"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
       <c r="D12" s="45"/>
@@ -2752,7 +2755,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
@@ -2769,7 +2772,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
@@ -2786,7 +2789,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
@@ -2799,7 +2802,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
@@ -2818,7 +2821,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="3:24">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -2837,7 +2840,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="3:24">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -2856,7 +2859,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:24">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -2875,7 +2878,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:24">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -2894,7 +2897,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:24">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -2914,7 +2917,7 @@
       <c r="N21" s="41"/>
       <c r="X21" s="49"/>
     </row>
-    <row r="22" spans="3:24">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -2934,7 +2937,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:24">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -2952,7 +2955,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:24">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -2970,7 +2973,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:24">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -2988,7 +2991,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="3:24">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -3006,7 +3009,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:24">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -3024,7 +3027,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="3:24">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -3042,7 +3045,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:24">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -3060,7 +3063,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:24">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -3078,7 +3081,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:24">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -3096,7 +3099,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="3:24">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -3114,7 +3117,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
@@ -3132,7 +3135,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28"/>
@@ -3147,7 +3150,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="3:14" ht="17.25">
+    <row r="35" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="1"/>
@@ -3158,7 +3161,7 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="G36" s="1"/>
@@ -3171,7 +3174,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="H37" s="40"/>
@@ -3180,7 +3183,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="H38" s="40"/>
@@ -3189,7 +3192,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="28" t="s">
@@ -3204,7 +3207,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
@@ -3219,7 +3222,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="28" t="s">
@@ -3242,7 +3245,7 @@
       </c>
       <c r="N41" s="28"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
@@ -3275,7 +3278,7 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -3288,7 +3291,7 @@
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>22</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -3314,7 +3317,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="62"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="63" t="s">
         <v>24</v>
       </c>
@@ -3326,7 +3329,7 @@
       <c r="G4" s="63"/>
       <c r="H4" s="63"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
         <v>26</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
@@ -3368,7 +3371,7 @@
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -3384,7 +3387,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="40"/>
@@ -3402,7 +3405,7 @@
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
@@ -3420,7 +3423,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="36"/>
       <c r="D10" s="38"/>
@@ -3439,7 +3442,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="36"/>
       <c r="D11" s="38"/>
@@ -3457,7 +3460,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
       <c r="D12" s="45"/>
@@ -3475,7 +3478,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
@@ -3492,7 +3495,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
@@ -3509,7 +3512,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
@@ -3522,7 +3525,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
@@ -3539,7 +3542,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -3556,7 +3559,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -3573,7 +3576,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -3590,7 +3593,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -3607,7 +3610,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -3624,7 +3627,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -3642,7 +3645,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -3660,7 +3663,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -3678,7 +3681,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -3696,7 +3699,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -3714,7 +3717,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -3732,7 +3735,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -3750,7 +3753,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -3768,7 +3771,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -3786,7 +3789,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -3804,7 +3807,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -3822,7 +3825,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
@@ -3840,7 +3843,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28"/>
@@ -3855,7 +3858,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="3:14" ht="17.25">
+    <row r="35" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="1"/>
@@ -3866,7 +3869,7 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="G36" s="1"/>
@@ -3879,7 +3882,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="H37" s="40"/>
@@ -3888,7 +3891,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="H38" s="40"/>
@@ -3897,7 +3900,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="28" t="s">
@@ -3912,7 +3915,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="G40" s="28" t="s">
@@ -3927,7 +3930,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="28" t="s">
@@ -3950,7 +3953,7 @@
       </c>
       <c r="N41" s="28"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
@@ -3982,7 +3985,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -3996,7 +3999,7 @@
     <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
@@ -4007,7 +4010,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -4023,7 +4026,7 @@
       <c r="N4" s="62"/>
       <c r="Q4" s="50"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="63" t="s">
         <v>24</v>
       </c>
@@ -4036,7 +4039,7 @@
       <c r="H5" s="63"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
         <v>26</v>
       </c>
@@ -4057,7 +4060,7 @@
       </c>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
@@ -4080,7 +4083,7 @@
       <c r="N7" s="41"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
@@ -4097,7 +4100,7 @@
       <c r="N8" s="41"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="40"/>
@@ -4116,7 +4119,7 @@
       <c r="N9" s="41"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -4137,7 +4140,7 @@
       <c r="N10" s="41"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
       <c r="C11" s="36"/>
       <c r="D11" s="38"/>
@@ -4157,7 +4160,7 @@
       <c r="N11" s="41"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
       <c r="D12" s="38"/>
@@ -4176,7 +4179,7 @@
       <c r="N12" s="41"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="36"/>
       <c r="D13" s="45"/>
@@ -4195,7 +4198,7 @@
       <c r="N13" s="41"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
@@ -4211,7 +4214,7 @@
       <c r="N14" s="41"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
@@ -4229,7 +4232,7 @@
       <c r="N15" s="41"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28"/>
@@ -4243,7 +4246,7 @@
       <c r="N16" s="41"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="3:17">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -4263,7 +4266,7 @@
       <c r="N17" s="41"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="3:17">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -4283,7 +4286,7 @@
       <c r="N18" s="41"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="3:17">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -4303,7 +4306,7 @@
       <c r="N19" s="41"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="3:17">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -4323,7 +4326,7 @@
       <c r="N20" s="41"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="3:17">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -4343,7 +4346,7 @@
       <c r="N21" s="41"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="3:17">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -4363,7 +4366,7 @@
       <c r="N22" s="41"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -4383,7 +4386,7 @@
       <c r="N23" s="41"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="3:17">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -4401,7 +4404,7 @@
       <c r="N24" s="41"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="3:17">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -4419,7 +4422,7 @@
       <c r="N25" s="41"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="3:17">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -4437,7 +4440,7 @@
       <c r="N26" s="41"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="3:17">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -4455,7 +4458,7 @@
       <c r="N27" s="41"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="3:17">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -4474,7 +4477,7 @@
       <c r="N28" s="41"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="3:17">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -4493,7 +4496,7 @@
       <c r="N29" s="41"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="3:17">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -4512,7 +4515,7 @@
       <c r="N30" s="41"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="3:17">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -4531,7 +4534,7 @@
       <c r="N31" s="41"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="3:17">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -4550,7 +4553,7 @@
       <c r="N32" s="41"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="3:17">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
@@ -4568,7 +4571,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="3:17">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
@@ -4586,7 +4589,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="3:17">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
@@ -4604,7 +4607,7 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="3:17">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28" t="s">
@@ -4622,7 +4625,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="3:17">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28" t="s">
@@ -4640,7 +4643,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:17">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="28" t="s">
@@ -4658,7 +4661,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="3:17">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="F39" s="28"/>
@@ -4674,7 +4677,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="3:17" ht="17.25">
+    <row r="40" spans="3:17" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="F40" s="1"/>
@@ -4686,7 +4689,7 @@
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="3:17">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="G41" s="1"/>
@@ -4700,7 +4703,7 @@
       <c r="N41" s="41"/>
       <c r="Q41" s="50"/>
     </row>
-    <row r="42" spans="3:17">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="H42" s="40"/>
@@ -4710,7 +4713,7 @@
       <c r="N42" s="41"/>
       <c r="Q42" s="50"/>
     </row>
-    <row r="43" spans="3:17">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="H43" s="40"/>
@@ -4720,7 +4723,7 @@
       <c r="N43" s="41"/>
       <c r="Q43" s="50"/>
     </row>
-    <row r="44" spans="3:17">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
@@ -4736,7 +4739,7 @@
       <c r="N44" s="41"/>
       <c r="Q44" s="50"/>
     </row>
-    <row r="45" spans="3:17">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
@@ -4752,7 +4755,7 @@
       <c r="N45" s="41"/>
       <c r="Q45" s="50"/>
     </row>
-    <row r="46" spans="3:17">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="G46" s="28" t="s">
@@ -4768,7 +4771,7 @@
       <c r="N46" s="41"/>
       <c r="Q46" s="50"/>
     </row>
-    <row r="47" spans="3:17">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="G47" s="28" t="s">
@@ -4784,7 +4787,7 @@
       <c r="N47" s="41"/>
       <c r="Q47" s="50"/>
     </row>
-    <row r="48" spans="3:17">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="28" t="s">
@@ -4801,30 +4804,30 @@
       <c r="N48" s="28"/>
       <c r="Q48" s="50"/>
     </row>
-    <row r="49" spans="3:17">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="Q49" s="50"/>
     </row>
-    <row r="50" spans="3:17">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q50" s="50"/>
     </row>
-    <row r="51" spans="3:17">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q51" s="50"/>
     </row>
-    <row r="52" spans="3:17">
+    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q52" s="50"/>
     </row>
-    <row r="53" spans="3:17">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q53" s="50"/>
     </row>
-    <row r="54" spans="3:17">
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q54" s="50"/>
     </row>
-    <row r="55" spans="3:17">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q55" s="50"/>
     </row>
-    <row r="58" spans="3:17">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q58" s="50"/>
     </row>
   </sheetData>
@@ -4845,11 +4848,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07543B42-7DB5-46C9-BD91-2D1F24F4A79B}">
   <dimension ref="B3:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R28" sqref="R28:V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -4863,7 +4866,7 @@
     <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
@@ -4874,7 +4877,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -4889,7 +4892,7 @@
       <c r="M4" s="62"/>
       <c r="N4" s="62"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="63" t="s">
         <v>24</v>
       </c>
@@ -4901,7 +4904,7 @@
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
         <v>26</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="42" t="s">
@@ -4958,7 +4961,7 @@
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="40"/>
@@ -4976,7 +4979,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -4996,7 +4999,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
       <c r="C11" s="36"/>
       <c r="D11" s="38"/>
@@ -5015,7 +5018,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
       <c r="D12" s="38"/>
@@ -5033,7 +5036,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="36"/>
       <c r="D13" s="45"/>
@@ -5049,7 +5052,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
@@ -5066,7 +5069,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
@@ -5083,7 +5086,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28"/>
@@ -5096,7 +5099,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="3:20">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -5115,7 +5118,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="3:20">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -5134,7 +5137,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:20">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -5153,7 +5156,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:20">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -5172,7 +5175,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:20">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -5189,7 +5192,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="3:20">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -5206,7 +5209,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:20">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -5223,7 +5226,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:20">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -5240,7 +5243,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:20">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -5257,7 +5260,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="3:20">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -5274,7 +5277,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:20">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -5291,7 +5294,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="3:20">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -5309,7 +5312,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:20">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -5327,7 +5330,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:20">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -5345,7 +5348,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:20">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -5365,7 +5368,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="3:20">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -5385,7 +5388,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="3:20">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
@@ -5405,7 +5408,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="3:20">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
@@ -5425,7 +5428,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="3:20">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
@@ -5445,7 +5448,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="3:20">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28" t="s">
@@ -5465,7 +5468,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="51"/>
     </row>
-    <row r="37" spans="3:20">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
@@ -5483,7 +5486,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="3:20" ht="17.25">
+    <row r="38" spans="3:20" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="1"/>
@@ -5497,7 +5500,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="3:20">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="1"/>
@@ -5513,7 +5516,7 @@
       <c r="S39" s="20"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="3:20">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="H40" s="40"/>
@@ -5525,7 +5528,7 @@
       <c r="S40" s="20"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="3:20">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="H41" s="40"/>
@@ -5536,7 +5539,7 @@
       <c r="S41" s="20"/>
       <c r="T41" s="25"/>
     </row>
-    <row r="42" spans="3:20">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
@@ -5551,7 +5554,7 @@
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="3:20">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
@@ -5566,7 +5569,7 @@
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
     </row>
-    <row r="44" spans="3:20">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
@@ -5581,7 +5584,7 @@
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
     </row>
-    <row r="45" spans="3:20">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
@@ -5596,7 +5599,7 @@
       <c r="M45" s="41"/>
       <c r="N45" s="41"/>
     </row>
-    <row r="46" spans="3:20">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="K46" s="31"/>
@@ -5604,7 +5607,7 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
     </row>
-    <row r="47" spans="3:20">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="K47" s="34"/>
@@ -5612,7 +5615,7 @@
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
     </row>
-    <row r="48" spans="3:20">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="28" t="s">
@@ -5650,7 +5653,7 @@
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
@@ -5663,7 +5666,7 @@
     <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
@@ -5674,7 +5677,7 @@
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -5689,7 +5692,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
         <v>24</v>
       </c>
@@ -5701,7 +5704,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="64" t="s">
         <v>26</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -5742,7 +5745,7 @@
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
@@ -5758,7 +5761,7 @@
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="40"/>
@@ -5776,7 +5779,7 @@
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
@@ -5796,7 +5799,7 @@
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="34"/>
       <c r="D11" s="36"/>
       <c r="E11" s="38"/>
@@ -5815,7 +5818,7 @@
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="36"/>
       <c r="E12" s="38"/>
@@ -5833,7 +5836,7 @@
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="36"/>
       <c r="E13" s="45"/>
@@ -5851,7 +5854,7 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="G14" s="28"/>
@@ -5868,7 +5871,7 @@
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28"/>
@@ -5885,7 +5888,7 @@
       <c r="N15" s="41"/>
       <c r="O15" s="41"/>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28"/>
@@ -5898,7 +5901,7 @@
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
     </row>
-    <row r="17" spans="4:15">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
@@ -5917,7 +5920,7 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
     </row>
-    <row r="18" spans="4:15">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
@@ -5936,7 +5939,7 @@
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" spans="4:15">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
@@ -5955,7 +5958,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
     </row>
-    <row r="20" spans="4:15">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
@@ -5974,7 +5977,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
     </row>
-    <row r="21" spans="4:15">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
@@ -5993,7 +5996,7 @@
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
     </row>
-    <row r="22" spans="4:15">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
@@ -6012,7 +6015,7 @@
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" spans="4:15">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28" t="s">
@@ -6031,7 +6034,7 @@
       <c r="N23" s="41"/>
       <c r="O23" s="41"/>
     </row>
-    <row r="24" spans="4:15">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
@@ -6050,7 +6053,7 @@
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
     </row>
-    <row r="25" spans="4:15">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28" t="s">
@@ -6067,7 +6070,7 @@
       <c r="N25" s="41"/>
       <c r="O25" s="41"/>
     </row>
-    <row r="26" spans="4:15">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="28" t="s">
@@ -6084,7 +6087,7 @@
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
     </row>
-    <row r="27" spans="4:15">
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="G27" s="28" t="s">
@@ -6101,7 +6104,7 @@
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
     </row>
-    <row r="28" spans="4:15">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="G28" s="28" t="s">
@@ -6118,7 +6121,7 @@
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
     </row>
-    <row r="29" spans="4:15">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="G29" s="28" t="s">
@@ -6136,7 +6139,7 @@
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
     </row>
-    <row r="30" spans="4:15">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="G30" s="28" t="s">
@@ -6154,7 +6157,7 @@
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
     </row>
-    <row r="31" spans="4:15">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="G31" s="28" t="s">
@@ -6172,7 +6175,7 @@
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
     </row>
-    <row r="32" spans="4:15">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="G32" s="28" t="s">
@@ -6190,7 +6193,7 @@
       <c r="N32" s="41"/>
       <c r="O32" s="41"/>
     </row>
-    <row r="33" spans="4:15">
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="G33" s="28" t="s">
@@ -6208,7 +6211,7 @@
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
     </row>
-    <row r="34" spans="4:15">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="G34" s="28" t="s">
@@ -6226,7 +6229,7 @@
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
     </row>
-    <row r="35" spans="4:15">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="G35" s="28" t="s">
@@ -6244,7 +6247,7 @@
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
     </row>
-    <row r="36" spans="4:15">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="G36" s="28" t="s">
@@ -6262,7 +6265,7 @@
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
     </row>
-    <row r="37" spans="4:15">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="G37" s="28" t="s">
@@ -6280,7 +6283,7 @@
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
     </row>
-    <row r="38" spans="4:15">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="G38" s="28" t="s">
@@ -6298,7 +6301,7 @@
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
     </row>
-    <row r="39" spans="4:15">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="G39" s="28" t="s">
@@ -6316,7 +6319,7 @@
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
     </row>
-    <row r="40" spans="4:15">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="G40" s="28"/>
@@ -6332,7 +6335,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
     </row>
-    <row r="41" spans="4:15" ht="17.25">
+    <row r="41" spans="4:15" ht="17.25" x14ac:dyDescent="0.4">
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="G41" s="1"/>
@@ -6344,7 +6347,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
     </row>
-    <row r="42" spans="4:15">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="H42" s="1"/>
@@ -6358,7 +6361,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
     </row>
-    <row r="43" spans="4:15">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="I43" s="40"/>
@@ -6368,7 +6371,7 @@
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
     </row>
-    <row r="44" spans="4:15">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
       <c r="I44" s="40"/>
@@ -6377,7 +6380,7 @@
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
     </row>
-    <row r="45" spans="4:15">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="H45" s="28" t="s">
@@ -6392,7 +6395,7 @@
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
     </row>
-    <row r="46" spans="4:15">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
       <c r="H46" s="28" t="s">
@@ -6407,7 +6410,7 @@
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
     </row>
-    <row r="47" spans="4:15">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="H47" s="28" t="s">
@@ -6422,7 +6425,7 @@
       <c r="N47" s="41"/>
       <c r="O47" s="41"/>
     </row>
-    <row r="48" spans="4:15">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
       <c r="H48" s="28" t="s">
@@ -6437,7 +6440,7 @@
       <c r="N48" s="41"/>
       <c r="O48" s="41"/>
     </row>
-    <row r="49" spans="4:15">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
       <c r="L49" s="31"/>
@@ -6445,7 +6448,7 @@
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
     </row>
-    <row r="50" spans="4:15">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
       <c r="L50" s="34"/>
@@ -6453,7 +6456,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="41"/>
     </row>
-    <row r="51" spans="4:15">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="L51" s="28" t="s">
@@ -6486,11 +6489,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABFE6D-C9CC-404E-AA7B-641D346E9671}">
   <dimension ref="B2:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -6503,7 +6506,7 @@
     <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="62" t="s">
         <v>22</v>
       </c>
@@ -6514,7 +6517,7 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -6529,7 +6532,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="62"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="63" t="s">
         <v>24</v>
       </c>
@@ -6541,7 +6544,7 @@
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
         <v>26</v>
       </c>
@@ -6560,7 +6563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
@@ -6580,7 +6583,7 @@
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D7" s="40"/>
       <c r="F7" s="28"/>
       <c r="G7" s="42" t="s">
@@ -6596,7 +6599,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="40"/>
@@ -6614,7 +6617,7 @@
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
@@ -6634,7 +6637,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="36"/>
       <c r="D10" s="38"/>
@@ -6653,7 +6656,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="36"/>
       <c r="D11" s="38"/>
@@ -6671,7 +6674,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
       <c r="D12" s="45"/>
@@ -6689,7 +6692,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="F13" s="28"/>
@@ -6706,7 +6709,7 @@
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28"/>
@@ -6723,7 +6726,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28"/>
@@ -6736,7 +6739,7 @@
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
@@ -6755,7 +6758,7 @@
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -6774,7 +6777,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -6793,7 +6796,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28" t="s">
@@ -6812,7 +6815,7 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28" t="s">
@@ -6831,7 +6834,7 @@
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28" t="s">
@@ -6848,7 +6851,7 @@
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28" t="s">
@@ -6865,7 +6868,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="28" t="s">
@@ -6882,7 +6885,7 @@
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="F24" s="28" t="s">
@@ -6899,7 +6902,7 @@
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="F25" s="28" t="s">
@@ -6917,7 +6920,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -6935,7 +6938,7 @@
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -6953,7 +6956,7 @@
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -6971,7 +6974,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -6989,7 +6992,7 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -7007,7 +7010,7 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -7025,7 +7028,7 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="F32" s="28" t="s">
@@ -7043,7 +7046,7 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="3:17">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="F33" s="28" t="s">
@@ -7061,7 +7064,7 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="3:17">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="F34" s="28" t="s">
@@ -7079,7 +7082,7 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="3:17">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="F35" s="28" t="s">
@@ -7097,7 +7100,7 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="3:17">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="F36" s="28" t="s">
@@ -7115,7 +7118,7 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="3:17">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="F37" s="28"/>
@@ -7131,7 +7134,7 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="3:17">
+    <row r="38" spans="3:17" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="F38" s="1"/>
@@ -7143,7 +7146,7 @@
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="3:17">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="G39" s="1"/>
@@ -7157,7 +7160,7 @@
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="3:17">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="H40" s="40"/>
@@ -7168,7 +7171,7 @@
       <c r="N40" s="41"/>
       <c r="Q40" s="38"/>
     </row>
-    <row r="41" spans="3:17">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="H41" s="40"/>
@@ -7177,7 +7180,7 @@
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
     </row>
-    <row r="42" spans="3:17">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="G42" s="28" t="s">
@@ -7192,7 +7195,7 @@
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="3:17">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="G43" s="28" t="s">
@@ -7207,7 +7210,7 @@
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
     </row>
-    <row r="44" spans="3:17">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="G44" s="28" t="s">
@@ -7222,7 +7225,7 @@
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
     </row>
-    <row r="45" spans="3:17">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="G45" s="28" t="s">
@@ -7237,7 +7240,7 @@
       <c r="M45" s="41"/>
       <c r="N45" s="41"/>
     </row>
-    <row r="46" spans="3:17">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="K46" s="31"/>
@@ -7245,7 +7248,7 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
     </row>
-    <row r="47" spans="3:17">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
       <c r="K47" s="31"/>
@@ -7253,7 +7256,7 @@
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
     </row>
-    <row r="48" spans="3:17">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="K48" s="31"/>
@@ -7261,7 +7264,7 @@
       <c r="M48" s="41"/>
       <c r="N48" s="41"/>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="K49" s="31"/>
@@ -7269,14 +7272,14 @@
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" s="30"/>
       <c r="K50" s="34"/>
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
       <c r="N50" s="41"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="30"/>
       <c r="K51" s="28" t="s">
         <v>49</v>
@@ -7304,6 +7307,839 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FDE995-C67A-4921-9152-CFD72CADAA2D}">
+  <dimension ref="B2:W51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="K3" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="F4" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="L5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="38">
+        <v>4400</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="43">
+        <v>200</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="43">
+        <v>230</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="44">
+        <v>38.9</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="40"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="43">
+        <v>200</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="44">
+        <v>24</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="44">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="43">
+        <v>600</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="43">
+        <v>17.45</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="45"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="43">
+        <v>200</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="43">
+        <v>150</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="43">
+        <v>97.14</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="38">
+        <v>50.04</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="38">
+        <v>46.6</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="52">
+        <v>29.1</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="52">
+        <v>103.7</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="52">
+        <v>12.46</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="52">
+        <v>74.73</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="52">
+        <v>14.48</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="38">
+        <v>41.57</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="38">
+        <v>33</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="38">
+        <v>14.92</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="W25" s="68"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="38">
+        <v>21.1</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="38">
+        <v>20.16</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="38">
+        <v>15.02</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="38">
+        <v>30.71</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="38">
+        <v>33</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="38">
+        <v>257.25</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="38">
+        <v>96.8</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="38">
+        <v>22.5</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="38">
+        <v>148.16</v>
+      </c>
+      <c r="I35" s="25"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="38">
+        <v>97.9</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="38">
+        <v>135.72</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="3:14" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="25"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="39">
+        <f>SUM(H5:H38)</f>
+        <v>3081.5099999999998</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="25"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="H41" s="40"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="G42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="39">
+        <f>L51</f>
+        <v>384.19999999999987</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="G43" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="39">
+        <f>D6</f>
+        <v>4400</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="G44" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="39">
+        <f>(H39+H42)</f>
+        <v>3465.7099999999996</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="G45" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="39">
+        <f>H43-H44</f>
+        <v>934.29000000000042</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="30"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="30"/>
+      <c r="K51" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" s="27">
+        <f>SUM(L6:L50)</f>
+        <v>384.19999999999987</v>
+      </c>
+      <c r="M51" s="27">
+        <f>SUM(M6:M50)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07669350-8BC7-4E54-9EC3-BF48DC3D62D8}">
   <dimension ref="A2:R29"/>
@@ -7312,7 +8148,7 @@
       <selection activeCell="G20" sqref="G6:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -7329,7 +8165,7 @@
     <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
@@ -7340,7 +8176,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -7355,7 +8191,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="62"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>24</v>
       </c>
@@ -7367,7 +8203,7 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>26</v>
       </c>
@@ -7386,7 +8222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -7414,7 +8250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="28"/>
       <c r="F7" s="24" t="s">
         <v>31</v>
@@ -7435,7 +8271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="28"/>
       <c r="F8" s="24" t="s">
         <v>32</v>
@@ -7457,7 +8293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -7481,7 +8317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="E10" s="28"/>
@@ -7503,7 +8339,7 @@
       </c>
       <c r="R10" s="30"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="E11" s="28" t="s">
@@ -7530,7 +8366,7 @@
       </c>
       <c r="R11" s="30"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="E12" s="28" t="s">
@@ -7555,7 +8391,7 @@
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="E13" s="28" t="s">
@@ -7579,7 +8415,7 @@
       </c>
       <c r="Q13" s="30"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="E14" s="28" t="s">
@@ -7603,7 +8439,7 @@
       </c>
       <c r="Q14" s="30"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="E15" s="28" t="s">
@@ -7629,7 +8465,7 @@
       </c>
       <c r="Q15" s="30"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="E16" s="28"/>
@@ -7649,7 +8485,7 @@
       </c>
       <c r="Q16" s="30"/>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="E17" s="28"/>
@@ -7663,7 +8499,7 @@
       <c r="N17" s="26"/>
       <c r="Q17" s="30"/>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="E18" s="28"/>
@@ -7677,7 +8513,7 @@
       <c r="N18" s="26"/>
       <c r="Q18" s="30"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="E19" s="28"/>
@@ -7695,7 +8531,7 @@
       </c>
       <c r="Q19" s="30"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="E20" s="28"/>
@@ -7717,7 +8553,7 @@
       </c>
       <c r="Q20" s="30"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="E21" s="28"/>
@@ -7742,7 +8578,7 @@
       </c>
       <c r="Q21" s="30"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="E22" s="28"/>
@@ -7766,7 +8602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="E23" s="1"/>
@@ -7788,7 +8624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="K24" s="31">
@@ -7802,7 +8638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="K25" s="1"/>
@@ -7810,7 +8646,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -7825,7 +8661,7 @@
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -7840,7 +8676,7 @@
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -7863,7 +8699,7 @@
       </c>
       <c r="N28" s="28"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -7896,7 +8732,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
@@ -7911,10 +8747,10 @@
     <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R1" s="35"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
@@ -7925,7 +8761,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -7940,7 +8776,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="62"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>24</v>
       </c>
@@ -7952,7 +8788,7 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>26</v>
       </c>
@@ -7971,7 +8807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -7999,7 +8835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E7" s="28"/>
       <c r="F7" s="24" t="s">
         <v>31</v>
@@ -8020,7 +8856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E8" s="28"/>
       <c r="F8" s="24" t="s">
         <v>32</v>
@@ -8042,7 +8878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -8065,7 +8901,7 @@
       </c>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="E10" s="28"/>
@@ -8087,7 +8923,7 @@
       </c>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="E11" s="28" t="s">
@@ -8114,7 +8950,7 @@
       </c>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="E12" s="28" t="s">
@@ -8138,7 +8974,7 @@
       </c>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="E13" s="28" t="s">
@@ -8167,7 +9003,7 @@
       </c>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="E14" s="28" t="s">
@@ -8191,7 +9027,7 @@
       </c>
       <c r="S14" s="30"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="E15" s="28" t="s">
@@ -8215,7 +9051,7 @@
       </c>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="E16" s="28" t="s">
@@ -8241,7 +9077,7 @@
       </c>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="E17" s="28"/>
@@ -8259,7 +9095,7 @@
       </c>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="E18" s="28"/>
@@ -8279,7 +9115,7 @@
       </c>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="E19" s="28"/>
@@ -8299,7 +9135,7 @@
       </c>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="E20" s="28"/>
@@ -8321,7 +9157,7 @@
       </c>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="E21" s="28"/>
@@ -8346,7 +9182,7 @@
       </c>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="E22" s="28"/>
@@ -8371,7 +9207,7 @@
       </c>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="E23" s="1"/>
@@ -8394,7 +9230,7 @@
       </c>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="K24" s="31">
@@ -8409,7 +9245,7 @@
       </c>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="K25" s="31">
@@ -8420,7 +9256,7 @@
       <c r="N25" s="26"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="F26" s="28" t="s">
@@ -8438,7 +9274,7 @@
       <c r="N26" s="26"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="F27" s="28" t="s">
@@ -8455,7 +9291,7 @@
       <c r="M27" s="33"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -8470,7 +9306,7 @@
       <c r="M28" s="33"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -8515,7 +9351,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -8529,7 +9365,7 @@
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>22</v>
       </c>
@@ -8540,7 +9376,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
@@ -8555,7 +9391,7 @@
       <c r="M4" s="62"/>
       <c r="N4" s="62"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>24</v>
       </c>
@@ -8567,7 +9403,7 @@
       <c r="F5" s="63"/>
       <c r="G5" s="63"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>26</v>
       </c>
@@ -8586,7 +9422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -8612,7 +9448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="28"/>
       <c r="F8" s="24" t="s">
         <v>31</v>
@@ -8633,7 +9469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="28"/>
       <c r="F9" s="24" t="s">
         <v>33</v>
@@ -8649,7 +9485,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="28"/>
       <c r="F10" s="24" t="s">
         <v>60</v>
@@ -8665,7 +9501,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -8687,7 +9523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="E12" s="28"/>
@@ -8709,7 +9545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="E13" s="28" t="s">
@@ -8732,7 +9568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="E14" s="28" t="s">
@@ -8751,7 +9587,7 @@
       <c r="M14" s="33"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="E15" s="28" t="s">
@@ -8774,7 +9610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="E16" s="28" t="s">
@@ -8797,7 +9633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="E17" s="28" t="s">
@@ -8820,7 +9656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="E18" s="28" t="s">
@@ -8839,7 +9675,7 @@
       <c r="M18" s="33"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="E19" s="28" t="s">
@@ -8863,7 +9699,7 @@
       </c>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="E20" s="28" t="s">
@@ -8886,7 +9722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="E21" s="28"/>
@@ -8899,7 +9735,7 @@
       <c r="M21" s="33"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="E22" s="28"/>
@@ -8916,7 +9752,7 @@
       <c r="M22" s="33"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="E23" s="28"/>
@@ -8938,7 +9774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="E24" s="28"/>
@@ -8954,7 +9790,7 @@
       <c r="M24" s="33"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="E25" s="1"/>
@@ -8972,7 +9808,7 @@
       <c r="M25" s="33"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="K26" s="31">
@@ -8984,7 +9820,7 @@
       <c r="M26" s="33"/>
       <c r="N26" s="26"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="K27" s="31">
@@ -8996,7 +9832,7 @@
       <c r="M27" s="33"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="F28" s="28" t="s">
@@ -9015,7 +9851,7 @@
       <c r="M28" s="33"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="F29" s="28" t="s">
@@ -9030,7 +9866,7 @@
       <c r="M29" s="33"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="F30" s="28" t="s">
@@ -9053,7 +9889,7 @@
       </c>
       <c r="N30" s="28"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="F31" s="28" t="s">
@@ -9064,7 +9900,7 @@
         <v>190.06999999999971</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
     </row>
@@ -9090,7 +9926,7 @@
       <selection activeCell="B10" sqref="B10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -9103,7 +9939,7 @@
     <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
@@ -9114,7 +9950,7 @@
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -9129,7 +9965,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="63" t="s">
         <v>24</v>
       </c>
@@ -9141,7 +9977,7 @@
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
         <v>26</v>
       </c>
@@ -9160,7 +9996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
@@ -9184,7 +10020,7 @@
       <c r="N7" s="33"/>
       <c r="O7" s="26"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D8" s="40"/>
       <c r="F8" s="28"/>
       <c r="G8" s="24" t="s">
@@ -9202,7 +10038,7 @@
       <c r="N8" s="33"/>
       <c r="O8" s="26"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="40"/>
@@ -9223,7 +10059,7 @@
       <c r="N9" s="33"/>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -9248,7 +10084,7 @@
       <c r="N10" s="33"/>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>71</v>
       </c>
@@ -9275,7 +10111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="36"/>
       <c r="D12" s="38"/>
@@ -9299,7 +10135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="F13" s="28" t="s">
@@ -9322,7 +10158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="F14" s="28" t="s">
@@ -9345,7 +10181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="F15" s="28" t="s">
@@ -9368,7 +10204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="F16" s="28" t="s">
@@ -9391,7 +10227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="F17" s="28" t="s">
@@ -9414,7 +10250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="F18" s="28" t="s">
@@ -9437,7 +10273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="F19" s="28"/>
@@ -9454,7 +10290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="F20" s="28"/>
@@ -9475,7 +10311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="F21" s="28"/>
@@ -9493,7 +10329,7 @@
       <c r="N21" s="33"/>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="F22" s="28"/>
@@ -9509,7 +10345,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="F23" s="1"/>
@@ -9525,7 +10361,7 @@
       <c r="N23" s="33"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="H24" s="40"/>
@@ -9538,7 +10374,7 @@
       <c r="N24" s="33"/>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="H25" s="40"/>
@@ -9551,7 +10387,7 @@
       <c r="N25" s="33"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="G26" s="28" t="s">
@@ -9570,7 +10406,7 @@
       <c r="N26" s="33"/>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="G27" s="28" t="s">
@@ -9589,7 +10425,7 @@
       <c r="N27" s="33"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="G28" s="28" t="s">
@@ -9604,7 +10440,7 @@
       <c r="N28" s="33"/>
       <c r="O28" s="26"/>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="G29" s="28" t="s">
@@ -9619,7 +10455,7 @@
       <c r="N29" s="33"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="L30" s="28" t="s">
@@ -9635,11 +10471,11 @@
       </c>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
@@ -9665,7 +10501,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
@@ -9679,7 +10515,7 @@
     <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
@@ -9690,7 +10526,7 @@
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -9705,7 +10541,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
         <v>24</v>
       </c>
@@ -9717,7 +10553,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="64" t="s">
         <v>26</v>
       </c>
@@ -9736,7 +10572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -9764,7 +10600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="24" t="s">
@@ -9786,7 +10622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="40"/>
@@ -9810,7 +10646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
@@ -9838,7 +10674,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="34" t="s">
         <v>71</v>
       </c>
@@ -9865,7 +10701,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="36"/>
       <c r="E12" s="38"/>
@@ -9889,7 +10725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="G13" s="28"/>
@@ -9912,7 +10748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="G14" s="28" t="s">
@@ -9937,7 +10773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28" t="s">
@@ -9962,7 +10798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
@@ -9987,7 +10823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="4:18">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
@@ -10012,7 +10848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="4:18">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
@@ -10037,7 +10873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="4:18">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
@@ -10062,7 +10898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="4:18">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
@@ -10088,7 +10924,7 @@
       </c>
       <c r="R20" s="38"/>
     </row>
-    <row r="21" spans="4:18">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
@@ -10114,7 +10950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
@@ -10140,7 +10976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="4:18">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28"/>
@@ -10163,7 +10999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="4:18">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="1"/>
@@ -10182,7 +11018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="4:18">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="H25" s="1"/>
@@ -10203,7 +11039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="4:18">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="I26" s="40"/>
@@ -10220,7 +11056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="4:18">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="I27" s="40"/>
@@ -10237,7 +11073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="4:18">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="H28" s="28" t="s">
@@ -10258,7 +11094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="4:18">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="H29" s="28" t="s">
@@ -10279,7 +11115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="4:18">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="H30" s="28" t="s">
@@ -10302,7 +11138,7 @@
       </c>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="4:18">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="H31" s="28" t="s">
@@ -10335,7 +11171,7 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
@@ -10349,7 +11185,7 @@
     <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
@@ -10360,7 +11196,7 @@
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -10375,7 +11211,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
         <v>24</v>
       </c>
@@ -10387,7 +11223,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="64" t="s">
         <v>26</v>
       </c>
@@ -10406,7 +11242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -10434,7 +11270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="24" t="s">
@@ -10456,7 +11292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="40"/>
@@ -10480,7 +11316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
@@ -10508,7 +11344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="34" t="s">
         <v>71</v>
       </c>
@@ -10535,7 +11371,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="36"/>
       <c r="E12" s="38"/>
@@ -10559,7 +11395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="G13" s="28"/>
@@ -10580,7 +11416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="G14" s="28" t="s">
@@ -10605,7 +11441,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28" t="s">
@@ -10630,7 +11466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
@@ -10655,7 +11491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="4:15">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
@@ -10680,7 +11516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="4:15">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
@@ -10705,7 +11541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="4:15">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
@@ -10730,7 +11566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="4:15">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
@@ -10755,7 +11591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="4:15">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
@@ -10781,7 +11617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="4:15">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
@@ -10799,7 +11635,7 @@
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" spans="4:15">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28" t="s">
@@ -10817,7 +11653,7 @@
       <c r="N23" s="41"/>
       <c r="O23" s="41"/>
     </row>
-    <row r="24" spans="4:15">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
@@ -10843,7 +11679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="4:15">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28"/>
@@ -10866,7 +11702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="4:15">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="1"/>
@@ -10885,7 +11721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="4:15">
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="H27" s="1"/>
@@ -10906,7 +11742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="4:15">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="I28" s="40"/>
@@ -10923,7 +11759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="4:15">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="I29" s="40"/>
@@ -10940,7 +11776,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="4:15">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="H30" s="28" t="s">
@@ -10961,7 +11797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="4:15">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="H31" s="28" t="s">
@@ -10982,7 +11818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="4:15">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="H32" s="28" t="s">
@@ -11005,7 +11841,7 @@
       </c>
       <c r="O32" s="28"/>
     </row>
-    <row r="33" spans="4:9">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="H33" s="28" t="s">
@@ -11037,7 +11873,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -11050,7 +11886,7 @@
     <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
@@ -11061,7 +11897,7 @@
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
     </row>
-    <row r="4" spans="3:20">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -11076,7 +11912,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="3:20">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
         <v>24</v>
       </c>
@@ -11088,7 +11924,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="3:20">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="64" t="s">
         <v>26</v>
       </c>
@@ -11107,7 +11943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -11135,7 +11971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="3:20">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
@@ -11157,7 +11993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="3:20">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="40"/>
@@ -11181,7 +12017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="3:20">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
@@ -11210,7 +12046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="3:20">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="34"/>
       <c r="D11" s="36"/>
       <c r="E11" s="38"/>
@@ -11235,7 +12071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="3:20">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="36"/>
       <c r="E12" s="38"/>
@@ -11259,7 +12095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:20">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="G13" s="28"/>
@@ -11282,7 +12118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="3:20">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="G14" s="28"/>
@@ -11305,7 +12141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="3:20">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28" t="s">
@@ -11330,7 +12166,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:20">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
@@ -11356,7 +12192,7 @@
       </c>
       <c r="T16" s="46"/>
     </row>
-    <row r="17" spans="4:15">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
@@ -11381,7 +12217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="4:15">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
@@ -11406,7 +12242,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="4:15">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
@@ -11431,7 +12267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="4:15">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
@@ -11456,7 +12292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="4:15">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
@@ -11482,7 +12318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="4:15">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
@@ -11508,7 +12344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="4:15">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28"/>
@@ -11531,7 +12367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="4:15">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="1"/>
@@ -11550,7 +12386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="4:15">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="H25" s="1"/>
@@ -11571,7 +12407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="4:15">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="I26" s="40"/>
@@ -11588,7 +12424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="4:15">
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="I27" s="40"/>
@@ -11605,7 +12441,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="4:15">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="H28" s="28" t="s">
@@ -11626,7 +12462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="4:15">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="H29" s="28" t="s">
@@ -11647,7 +12483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="4:15">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="H30" s="28" t="s">
@@ -11670,7 +12506,7 @@
       </c>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="4:15">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="H31" s="28" t="s">
@@ -11703,7 +12539,7 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
@@ -11717,7 +12553,7 @@
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
@@ -11728,7 +12564,7 @@
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -11743,7 +12579,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
         <v>24</v>
       </c>
@@ -11755,7 +12591,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="64" t="s">
         <v>26</v>
       </c>
@@ -11774,7 +12610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
@@ -11794,7 +12630,7 @@
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
       <c r="G8" s="28"/>
       <c r="H8" s="42" t="s">
@@ -11808,7 +12644,7 @@
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="40"/>
@@ -11824,7 +12660,7 @@
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
@@ -11842,7 +12678,7 @@
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="34"/>
       <c r="D11" s="36"/>
       <c r="E11" s="38"/>
@@ -11859,7 +12695,7 @@
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="36"/>
       <c r="E12" s="38"/>
@@ -11875,7 +12711,7 @@
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="36"/>
       <c r="E13" s="45"/>
@@ -11891,7 +12727,7 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="G14" s="28"/>
@@ -11906,7 +12742,7 @@
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="G15" s="28"/>
@@ -11921,7 +12757,7 @@
       <c r="N15" s="41"/>
       <c r="O15" s="41"/>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="G16" s="28" t="s">
@@ -11938,7 +12774,7 @@
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
     </row>
-    <row r="17" spans="4:19">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="G17" s="28" t="s">
@@ -11955,7 +12791,7 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
     </row>
-    <row r="18" spans="4:19">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="G18" s="28" t="s">
@@ -11972,7 +12808,7 @@
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" spans="4:19">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="G19" s="28" t="s">
@@ -11989,7 +12825,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
     </row>
-    <row r="20" spans="4:19">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="G20" s="28" t="s">
@@ -12006,7 +12842,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
     </row>
-    <row r="21" spans="4:19">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="G21" s="28" t="s">
@@ -12023,7 +12859,7 @@
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
     </row>
-    <row r="22" spans="4:19">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="G22" s="28" t="s">
@@ -12041,7 +12877,7 @@
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" spans="4:19">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="G23" s="28" t="s">
@@ -12059,7 +12895,7 @@
       <c r="N23" s="41"/>
       <c r="O23" s="41"/>
     </row>
-    <row r="24" spans="4:19">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="G24" s="28" t="s">
@@ -12077,7 +12913,7 @@
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
     </row>
-    <row r="25" spans="4:19">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="G25" s="28" t="s">
@@ -12095,7 +12931,7 @@
       <c r="N25" s="41"/>
       <c r="O25" s="41"/>
     </row>
-    <row r="26" spans="4:19">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="G26" s="28" t="s">
@@ -12113,7 +12949,7 @@
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
     </row>
-    <row r="27" spans="4:19">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="G27" s="28" t="s">
@@ -12131,7 +12967,7 @@
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
     </row>
-    <row r="28" spans="4:19">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="G28" s="28" t="s">
@@ -12149,7 +12985,7 @@
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
     </row>
-    <row r="29" spans="4:19">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="G29" s="28" t="s">
@@ -12167,7 +13003,7 @@
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
     </row>
-    <row r="30" spans="4:19">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="G30" s="28" t="s">
@@ -12186,7 +13022,7 @@
       <c r="O30" s="41"/>
       <c r="S30" s="38"/>
     </row>
-    <row r="31" spans="4:19">
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="G31" s="28" t="s">
@@ -12205,7 +13041,7 @@
       <c r="O31" s="41"/>
       <c r="S31" s="38"/>
     </row>
-    <row r="32" spans="4:19">
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="G32" s="28"/>
@@ -12221,7 +13057,7 @@
       <c r="O32" s="41"/>
       <c r="S32" s="38"/>
     </row>
-    <row r="33" spans="4:19" ht="17.25">
+    <row r="33" spans="4:19" ht="17.25" x14ac:dyDescent="0.4">
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="G33" s="1"/>
@@ -12233,7 +13069,7 @@
       <c r="O33" s="41"/>
       <c r="S33" s="38"/>
     </row>
-    <row r="34" spans="4:19">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="H34" s="1"/>
@@ -12247,7 +13083,7 @@
       <c r="O34" s="41"/>
       <c r="S34" s="38"/>
     </row>
-    <row r="35" spans="4:19">
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="I35" s="40"/>
@@ -12257,7 +13093,7 @@
       <c r="O35" s="41"/>
       <c r="S35" s="38"/>
     </row>
-    <row r="36" spans="4:19">
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="I36" s="40"/>
@@ -12267,7 +13103,7 @@
       <c r="O36" s="41"/>
       <c r="S36" s="38"/>
     </row>
-    <row r="37" spans="4:19">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="H37" s="28" t="s">
@@ -12283,7 +13119,7 @@
       <c r="O37" s="41"/>
       <c r="S37" s="38"/>
     </row>
-    <row r="38" spans="4:19">
+    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="H38" s="28" t="s">
@@ -12299,7 +13135,7 @@
       <c r="O38" s="41"/>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="4:19">
+    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="H39" s="28" t="s">
@@ -12322,7 +13158,7 @@
       </c>
       <c r="O39" s="28"/>
     </row>
-    <row r="40" spans="4:19">
+    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="H40" s="28" t="s">
